--- a/Season_Trophies/80.xlsx
+++ b/Season_Trophies/80.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29194</t>
+          <t>25427</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3911</t>
+          <t>4280</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6316</t>
+          <t>6013</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8435</t>
+          <t>22477</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5259</t>
+          <t>4491</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2570</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Zephyr ᶻᵍˣ"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6919</t>
+          <t>6453</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6730</t>
+          <t>6537</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>爺玩的就是傳說中的寂寞與悲傷</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6448</t>
+          <t>6661</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>6700</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6430</t>
+          <t>5816</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>6592</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>5835</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>4919</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>5691528</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>ABearBear</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6268</t>
+          <t>6084</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>7163</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6232</t>
+          <t>5878</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>7886</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6192</t>
+          <t>5623</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2426</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6125</t>
+          <t>6485</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2169</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6097</t>
+          <t>5682</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3253</t>
+          <t>793</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5905</t>
+          <t>7037</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3437</t>
+          <t>6015</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5878</t>
+          <t>5948</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3471</t>
+          <t>8000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Kikkik</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5872</t>
+          <t>5607</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3680</t>
+          <t>2646</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5841</t>
+          <t>6434</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>1869</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5795</t>
+          <t>6622</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4243</t>
+          <t>7857</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>5627</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4654</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5691528</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ABearBear</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5709</t>
+          <t>6392</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4864</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5685</t>
+          <t>6179</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4903</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"fly kao"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5932</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5031</t>
+          <t>6043</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>5944</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5232</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>Kikkik</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5644</t>
+          <t>6259</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5506</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"fly kao"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5613</t>
+          <t>6629</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5428</t>
+          <t>14045</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>25435189</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5622</t>
+          <t>5017</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5653</t>
+          <t>2849</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5597</t>
+          <t>6388</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5668</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"煙神在此 爾等跪拜 ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5594</t>
+          <t>6845</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6385</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>6264</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6737</t>
+          <t>1328</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5463</t>
+          <t>6805</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6825</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"Zephyr ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5452</t>
+          <t>7117</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7583</t>
+          <t>20620</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5354</t>
+          <t>4574</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7741</t>
+          <t>2674</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>6424</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8601</t>
+          <t>6578</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5242</t>
+          <t>5838</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8803</t>
+          <t>11515</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5221</t>
+          <t>5251</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9249</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5175</t>
+          <t>6353</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10087</t>
+          <t>5757</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5091</t>
+          <t>6000</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10129</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5087</t>
+          <t>6115</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11099</t>
+          <t>3419</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5001</t>
+          <t>6280</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12532</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4890</t>
+          <t>6818</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>12693</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>25435189</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4876</t>
+          <t>6227</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>17398</t>
+          <t>13089</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>5107</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>18367</t>
+          <t>2484</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4491</t>
+          <t>6471</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>80384</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>57577052</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>洋鑫</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,159 +1604,159 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>6174</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>17496</t>
+          <t>9450</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4539</t>
+          <t>5437</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>18622</t>
+          <t>6226</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4478</t>
+          <t>5908</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5359</t>
+          <t>11478</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5629</t>
+          <t>5253</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8213</t>
+          <t>6086</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5284</t>
+          <t>5935</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9282</t>
+          <t>5633</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"心灵有为 1"</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5170</t>
+          <t>6012</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9799</t>
+          <t>48206</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5121</t>
+          <t>3225</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>14994</t>
+          <t>38165</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>45070827</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>㊥山东老灶丿</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>3656</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>15259</t>
+          <t>15997</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>4852</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>17924</t>
+          <t>23586</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4514</t>
+          <t>4405</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>18617</t>
+          <t>17901</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4478</t>
+          <t>4717</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>30434</t>
+          <t>8280</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3858</t>
+          <t>5571</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3928</t>
+          <t>18113</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>4704</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3947</t>
+          <t>10401</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5801</t>
+          <t>5344</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>8908</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5210</t>
+          <t>5727</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9563</t>
+          <t>9585</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5143</t>
+          <t>5423</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10242</t>
+          <t>8354</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5077</t>
+          <t>5564</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10416</t>
+          <t>19119</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5060</t>
+          <t>4648</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>11947</t>
+          <t>17454</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4936</t>
+          <t>4746</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>14587</t>
+          <t>18586</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4729</t>
+          <t>4676</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>16597</t>
+          <t>22907</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>54915122</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>平胸救世界</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4592</t>
+          <t>4458</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>17699</t>
+          <t>9266</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>"心灵有为 1"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4527</t>
+          <t>5457</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>17778</t>
+          <t>19095</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4522</t>
+          <t>4649</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>18219</t>
+          <t>21541</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4498</t>
+          <t>4537</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>19719</t>
+          <t>32227</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>3926</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>21114</t>
+          <t>6207</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4338</t>
+          <t>5911</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>21912</t>
+          <t>16937</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>45070827</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>㊥山东老灶丿</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4297</t>
+          <t>4782</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>25661</t>
+          <t>9876</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4084</t>
+          <t>5393</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>30479</t>
+          <t>13632</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3856</t>
+          <t>5055</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>30507</t>
+          <t>15105</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3855</t>
+          <t>4926</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>32977</t>
+          <t>17607</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3748</t>
+          <t>4736</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>40721</t>
+          <t>44887</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>53854103</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Samir</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3420</t>
+          <t>3358</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>43000</t>
+          <t>17077</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3328</t>
+          <t>4771</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>45010</t>
+          <t>17902</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>53854103</t>
+          <t>54915122</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Samir</t>
+          <t>平胸救世界</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3251</t>
+          <t>4717</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>46389</t>
+          <t>32530</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3197</t>
+          <t>3914</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>58688</t>
+          <t>36237</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>3754</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>83660</t>
+          <t>14235</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>57837683</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>我的世界只有你</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,105 +2576,105 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2259</t>
+          <t>5001</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7286</t>
+          <t>55975</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5391</t>
+          <t>2886</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>24983</t>
+          <t>42808</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4120</t>
+          <t>3445</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>39853</t>
+          <t>83994</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>57837683</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>我的世界只有你</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3457</t>
+          <t>2289</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>65429</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>6483</t>
+          <t>2624</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2258</t>
+          <t>41811</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>6077</t>
+          <t>3488</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6653</t>
+          <t>98792</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5474</t>
+          <t>2050</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>15681</t>
+          <t>82545</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>8263904</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"Cjhao Cjhao"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4650</t>
+          <t>2317</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>17792</t>
+          <t>68596</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>8481950</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"Natig Seferov"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4522</t>
+          <t>2562</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>22943</t>
+          <t>53092</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>3002</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>24253</t>
+          <t>28431</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4162</t>
+          <t>4103</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>25344</t>
+          <t>38207</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>3655</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>29689</t>
+          <t>20248</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3889</t>
+          <t>4592</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>33173</t>
+          <t>23705</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3740</t>
+          <t>4397</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>33646</t>
+          <t>24704</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3720</t>
+          <t>4325</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>35913</t>
+          <t>16073</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>4845</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>36767</t>
+          <t>23219</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3586</t>
+          <t>4433</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>38003</t>
+          <t>52709</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3533</t>
+          <t>3019</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>38846</t>
+          <t>54126</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>2959</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>39298</t>
+          <t>4706</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>6108</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>39985</t>
+          <t>28165</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3451</t>
+          <t>4116</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>41475</t>
+          <t>35383</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3390</t>
+          <t>3800</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>41650</t>
+          <t>60296</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3382</t>
+          <t>2753</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>42026</t>
+          <t>53469</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3368</t>
+          <t>2985</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>43109</t>
+          <t>39649</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>3584</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>45106</t>
+          <t>30486</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>56689806</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>无铅皮蛋QAQ</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3247</t>
+          <t>4004</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>46300</t>
+          <t>62906</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2681</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>49560</t>
+          <t>55540</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3061</t>
+          <t>2903</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>51218</t>
+          <t>35701</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2997</t>
+          <t>3782</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>53323</t>
+          <t>40047</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2918</t>
+          <t>3565</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>55205</t>
+          <t>37628</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>3681</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>59437</t>
+          <t>45716</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>61273</t>
+          <t>31427</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>3962</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>64309</t>
+          <t>52000</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>3048</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>65592</t>
+          <t>47993</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>3234</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>65604</t>
+          <t>42863</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>AdyYouTubeSs</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2585</t>
+          <t>3443</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>66580</t>
+          <t>46965</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>8481950</t>
+          <t>56689806</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Natig Seferov"</t>
+          <t>无铅皮蛋QAQ</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2568</t>
+          <t>3275</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>70739</t>
+          <t>37660</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>3679</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>80031</t>
+          <t>45073</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>8263904</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"Cjhao Cjhao"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2334</t>
+          <t>3350</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>95685</t>
+          <t>75191</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,51 +3629,51 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>2467</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>56624</t>
+          <t>66128</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>AdyYouTubeSs</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2608</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>31775</t>
+          <t>58592</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>2803</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>55261</t>
+          <t>31256</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,14 +3710,14 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2850</t>
+          <t>3970</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>58422</t>
+          <t>60255</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3771,17 +3771,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>65962</t>
+          <t>56230</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>2878</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>75586</t>
+          <t>63884</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>57722377</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>VI空白IV</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2657</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>76780</t>
+          <t>77295</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>57867293</t>
+          <t>57722377</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Player-57867293</t>
+          <t>VI空白IV</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2427</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>84259</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>57905163</t>
+          <t>57742603</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ABC—57905163</t>
+          <t>地铁逃生老六与白嫖仔</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,14 +3872,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2248</t>
+          <t>1813</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>90529</t>
+          <t>92777</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3906,17 +3906,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>107505</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>57742603</t>
+          <t>57847993</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>地铁逃生老六与白嫖仔</t>
+          <t>龘梦心裘千仞</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1816</t>
+          <t>1531</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>116849</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>58310605</t>
+          <t>57856989</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Player-58310605</t>
+          <t>Player-57856989</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>118252</t>
+          <t>78203</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>58310362</t>
+          <t>57867293</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>不老实的老实人</t>
+          <t>Player-57867293</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>2409</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>127215</t>
+          <t>84511</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>57847993</t>
+          <t>57905163</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>龘梦心裘千仞</t>
+          <t>ABC—57905163</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>2279</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>133355</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>57856989</t>
+          <t>58310362</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Player-57856989</t>
+          <t>不老实的老实人</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1638</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>200560</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>58382408</t>
+          <t>58310605</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Player-58382408</t>
+          <t>Player-58310605</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,78 +4061,78 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1092</t>
+          <t>1637</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>44699</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>58368224</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>战争雷霆杯</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>3263</t>
+          <t>1440</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>11761</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>58382408</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>Player-58382408</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>4949</t>
+          <t>1092</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>19278</t>
+          <t>8224</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>4440</t>
+          <t>5578</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>57616</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2777</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>69905</t>
+          <t>71522</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4203,17 +4203,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>16292</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4828</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4257,27 +4257,81 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>47087</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
+          <t>15755724</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>"Last Good"</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>3271</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
           <t>28624723</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>"Woody Shade"</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>44689</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>41848598</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>国家一级保护沙雕</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>3367</t>
         </is>
       </c>
     </row>
